--- a/Exc2/FURPS_table.xlsx
+++ b/Exc2/FURPS_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergey/IdeaProjects/practicum-sprint-9/Exc2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergey/IdeaProjects/supreme-carnival/Exc2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E18397-BADC-9A44-A073-FE62A0E08183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2B5775-C2D4-9E4D-9577-0C0998074E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29920" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Код</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Невозможность использования Kafka в интернет-банке</t>
   </si>
   <si>
-    <t>Текущая версия платформы несовместима с Kafka, поэтому её использование ограничено.</t>
-  </si>
-  <si>
     <t>Ограничения нагрузки на АБС</t>
   </si>
   <si>
@@ -166,13 +163,52 @@
     <t>Использование MS SQL, Oracle и других платформ, совместимых с текущей инфраструктурой.</t>
   </si>
   <si>
-    <t>Возможность дальнейшей интеграции и расширения</t>
-  </si>
-  <si>
-    <t>Подготовка документации для расширения функционала системы.</t>
-  </si>
-  <si>
     <t>Клиенты должны видеть индивидуальные ставки, актуальные для них.</t>
+  </si>
+  <si>
+    <t>Возможность посмотреть ставки через сайт</t>
+  </si>
+  <si>
+    <t>На сайте новый клиент видит список доступных депозитов с актуальными ставками.</t>
+  </si>
+  <si>
+    <t>Подготовка документации</t>
+  </si>
+  <si>
+    <t>Возможность дальнейшего расширения системы</t>
+  </si>
+  <si>
+    <t>Не дорабатывать функционал подрядчика в интернет-банке</t>
+  </si>
+  <si>
+    <t>Использовать существующие базы данных Oracle, MS SQL</t>
+  </si>
+  <si>
+    <t>АБС поддерживает только вертикальное масштабирование</t>
+  </si>
+  <si>
+    <t>Использовать микросервисную архитектуру при разработке в интернет-банке</t>
+  </si>
+  <si>
+    <t>Использовать платформы Java, .NET, PHP</t>
+  </si>
+  <si>
+    <t>Для соответствия стандартам разработки в банке и использования текущих компетенций команды</t>
+  </si>
+  <si>
+    <t>Ограничение на увеличение производительности через добавление серверных ресурсов</t>
+  </si>
+  <si>
+    <t>Для совместимости с текущей инфраструктурой банка и минимизации затрат.</t>
+  </si>
+  <si>
+    <t>Избегать доработки функционала подрядчика для минимизации затрат и времени разработки</t>
+  </si>
+  <si>
+    <t>Для гибкости и возможности интеграции новых компонентов</t>
+  </si>
+  <si>
+    <t>Текущая версия платформы несовместима с Kafka, поэтому её использование ограничено</t>
   </si>
 </sst>
 </file>
@@ -336,11 +372,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,20 +605,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I33"/>
+  <dimension ref="A3:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.3984375" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="6.796875" customWidth="1"/>
-    <col min="3" max="3" width="46.59765625" customWidth="1"/>
-    <col min="4" max="4" width="60.19921875" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17">
+    <row r="3" spans="2:4" ht="17">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,262 +629,326 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="17">
+    <row r="4" spans="2:4" ht="17">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:9" ht="51">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="2:4" ht="34">
       <c r="B5" s="4"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="34">
+    <row r="6" spans="2:4" ht="34">
       <c r="B6" s="4"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
+    </row>
+    <row r="7" spans="2:4" ht="34">
+      <c r="B7" s="4"/>
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="34">
-      <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="34">
+      <c r="B8" s="4"/>
+      <c r="C8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="34">
+      <c r="B9" s="4"/>
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="34">
-      <c r="B8" s="4"/>
-      <c r="C8" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8" t="s">
+    </row>
+    <row r="10" spans="2:4" ht="34">
+      <c r="B10" s="5"/>
+      <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="34">
-      <c r="B9" s="5"/>
-      <c r="C9" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="8" t="s">
+    </row>
+    <row r="11" spans="2:4" ht="17">
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="2:4" ht="34">
+      <c r="B12" s="4"/>
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="17">
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="2:9" ht="34">
-      <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="s">
+    </row>
+    <row r="13" spans="2:4" ht="34">
+      <c r="B13" s="5"/>
+      <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="34">
-      <c r="B12" s="5"/>
-      <c r="C12" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="8" t="s">
+    </row>
+    <row r="14" spans="2:4" ht="17">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="2:4" ht="34">
+      <c r="B15" s="4"/>
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="17">
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="2:9" ht="34">
-      <c r="B14" s="4"/>
-      <c r="C14" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="8" t="s">
+    </row>
+    <row r="16" spans="2:4" ht="34">
+      <c r="B16" s="4"/>
+      <c r="C16" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="51">
-      <c r="B15" s="4"/>
-      <c r="C15" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="8" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="34">
+      <c r="B17" s="4"/>
+      <c r="C17" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" ht="34">
-      <c r="B16" s="4"/>
-      <c r="C16" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="34">
+      <c r="B18" s="5"/>
+      <c r="C18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="34">
-      <c r="B17" s="5"/>
-      <c r="C17" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="17">
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="34">
+      <c r="B20" s="4"/>
+      <c r="C20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="17">
-      <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="34">
-      <c r="B19" s="4"/>
-      <c r="C19" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="34">
+      <c r="B21" s="5"/>
+      <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="34">
-      <c r="B20" s="5"/>
-      <c r="C20" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="17">
-      <c r="B21" s="4" t="s">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="17">
+      <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="34">
-      <c r="B22" s="4"/>
-      <c r="C22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="D22" s="8"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="34">
       <c r="B23" s="4"/>
-      <c r="C23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>49</v>
+      <c r="C23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="34">
-      <c r="B24" s="5"/>
-      <c r="C24" s="8" t="s">
+    <row r="24" spans="1:9" ht="17">
+      <c r="B24" s="4"/>
+      <c r="C24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="34">
+      <c r="B25" s="5"/>
+      <c r="C25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="17">
-      <c r="B25" s="4" t="s">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="17">
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="34">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="D26" s="8"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="34">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="34">
+      <c r="A28" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="34">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="34">
+      <c r="A30" s="2"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="34">
+      <c r="A31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="34">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="34">
+      <c r="A33" s="2"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="9:9">
+      <c r="D33" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="I39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
